--- a/data/result-highlighted.xlsx
+++ b/data/result-highlighted.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codee\package_splitter\splitter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codee\package_splitter\splitter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4589DC95-FA07-4D11-9D0B-955833E9ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE112777-5DFC-41E3-A306-68D15C2B30D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -669,259 +669,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFBE7CB0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCB7FB5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1258,7 +1006,7 @@
   <dimension ref="A1:BN270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="V188" sqref="V188"/>
+      <selection activeCell="U179" sqref="U179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18285,13 +18033,13 @@
         <v>1</v>
       </c>
       <c r="N169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P169" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q169" s="1">
         <v>2</v>
@@ -18327,40 +18075,40 @@
         <v>2</v>
       </c>
       <c r="AB169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM169" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18374,25 +18122,25 @@
         <v>1</v>
       </c>
       <c r="O170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R170" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U170" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V170" s="1">
         <v>2</v>
@@ -18404,81 +18152,81 @@
         <v>2</v>
       </c>
       <c r="Y170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD170" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK170" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL170" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM170" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L171" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M171" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N171" s="1">
         <v>1</v>
       </c>
       <c r="O171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U171" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V171" s="1">
         <v>2</v>
@@ -18490,81 +18238,81 @@
         <v>2</v>
       </c>
       <c r="Y171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD171" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK171" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL171" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM171" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L172" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M172" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N172" s="1">
         <v>1</v>
       </c>
       <c r="O172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U172" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V172" s="1">
         <v>2</v>
@@ -18576,81 +18324,81 @@
         <v>2</v>
       </c>
       <c r="Y172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD172" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK172" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL172" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM172" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L173" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M173" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N173" s="1">
         <v>1</v>
       </c>
       <c r="O173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U173" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V173" s="1">
         <v>2</v>
@@ -18662,229 +18410,229 @@
         <v>2</v>
       </c>
       <c r="Y173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD173" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK173" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL173" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM173" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L174" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M174" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N174" s="1">
         <v>1</v>
       </c>
       <c r="O174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V174" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W174" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X174" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y174" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z174" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM174" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L175" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M175" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N175" s="1">
         <v>1</v>
       </c>
       <c r="O175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y175" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z175" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM175" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L176" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M176" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N176" s="1">
         <v>1</v>
@@ -18911,66 +18659,66 @@
         <v>1</v>
       </c>
       <c r="V176" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W176" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X176" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y176" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z176" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM176" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L177" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M177" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N177" s="1">
         <v>1</v>
@@ -18982,10 +18730,10 @@
         <v>1</v>
       </c>
       <c r="Q177" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R177" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S177" s="1">
         <v>1</v>
@@ -19003,60 +18751,60 @@
         <v>1</v>
       </c>
       <c r="X177" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y177" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z177" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM177" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L178" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M178" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N178" s="1">
         <v>1</v>
@@ -19068,10 +18816,10 @@
         <v>1</v>
       </c>
       <c r="Q178" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R178" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S178" s="1">
         <v>1</v>
@@ -19089,60 +18837,60 @@
         <v>1</v>
       </c>
       <c r="X178" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y178" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z178" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AA178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM178" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L179" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M179" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N179" s="1">
         <v>1</v>
@@ -19154,10 +18902,10 @@
         <v>1</v>
       </c>
       <c r="Q179" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R179" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S179" s="1">
         <v>1</v>
@@ -19175,60 +18923,60 @@
         <v>1</v>
       </c>
       <c r="X179" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y179" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z179" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC179" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD179" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH179" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI179" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ179" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK179" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL179" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM179" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L180" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M180" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N180" s="1">
         <v>1</v>
@@ -19240,10 +18988,10 @@
         <v>1</v>
       </c>
       <c r="Q180" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R180" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S180" s="1">
         <v>6</v>
@@ -19261,25 +19009,25 @@
         <v>6</v>
       </c>
       <c r="X180" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y180" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z180" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA180" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB180" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC180" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD180" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE180" s="1">
         <v>5</v>
@@ -19303,18 +19051,18 @@
         <v>5</v>
       </c>
       <c r="AL180" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM180" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L181" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M181" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N181" s="1">
         <v>1</v>
@@ -19338,34 +19086,34 @@
         <v>6</v>
       </c>
       <c r="U181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z181" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA181" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB181" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC181" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AD181" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE181" s="1">
         <v>5</v>
@@ -19389,18 +19137,18 @@
         <v>5</v>
       </c>
       <c r="AL181" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM181" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L182" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M182" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N182" s="1">
         <v>1</v>
@@ -19424,176 +19172,176 @@
         <v>6</v>
       </c>
       <c r="U182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z182" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AA182" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB182" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD182" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE182" s="1">
         <v>8</v>
       </c>
-      <c r="AB182" s="1">
+      <c r="AF182" s="1">
         <v>8</v>
       </c>
-      <c r="AC182" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD182" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE182" s="1">
-        <v>7</v>
-      </c>
-      <c r="AF182" s="1">
-        <v>7</v>
-      </c>
       <c r="AG182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM182" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T183" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U183" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V183" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W183" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X183" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y183" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z183" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA183" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB183" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC183" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD183" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE183" s="1">
         <v>8</v>
       </c>
-      <c r="AB183" s="1">
+      <c r="AF183" s="1">
         <v>8</v>
       </c>
-      <c r="AC183" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD183" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE183" s="1">
-        <v>7</v>
-      </c>
-      <c r="AF183" s="1">
-        <v>7</v>
-      </c>
       <c r="AG183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM183" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="184" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T184" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U184" s="1">
         <v>6</v>
@@ -19605,69 +19353,69 @@
         <v>6</v>
       </c>
       <c r="X184" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y184" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z184" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA184" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB184" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC184" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD184" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE184" s="1">
         <v>8</v>
       </c>
-      <c r="AB184" s="1">
+      <c r="AF184" s="1">
         <v>8</v>
       </c>
-      <c r="AC184" s="1">
-        <v>7</v>
-      </c>
-      <c r="AD184" s="1">
-        <v>7</v>
-      </c>
-      <c r="AE184" s="1">
-        <v>7</v>
-      </c>
-      <c r="AF184" s="1">
-        <v>7</v>
-      </c>
       <c r="AG184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM184" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L185" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M185" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N185" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O185" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P185" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q185" s="1">
         <v>9</v>
@@ -19676,10 +19424,10 @@
         <v>9</v>
       </c>
       <c r="S185" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T185" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U185" s="1">
         <v>6</v>
@@ -19691,69 +19439,69 @@
         <v>6</v>
       </c>
       <c r="X185" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y185" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z185" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG185" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH185" s="1">
         <v>8</v>
       </c>
-      <c r="AB185" s="1">
+      <c r="AI185" s="1">
         <v>8</v>
       </c>
-      <c r="AC185" s="1">
+      <c r="AJ185" s="1">
         <v>8</v>
       </c>
-      <c r="AD185" s="1">
+      <c r="AK185" s="1">
         <v>8</v>
       </c>
-      <c r="AE185" s="1">
+      <c r="AL185" s="1">
         <v>8</v>
       </c>
-      <c r="AF185" s="1">
+      <c r="AM185" s="1">
         <v>8</v>
-      </c>
-      <c r="AG185" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH185" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI185" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ185" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK185" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL185" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM185" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="186" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L186" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M186" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N186" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O186" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P186" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q186" s="1">
         <v>9</v>
@@ -19762,10 +19510,10 @@
         <v>9</v>
       </c>
       <c r="S186" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T186" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U186" s="1">
         <v>9</v>
@@ -19777,69 +19525,69 @@
         <v>9</v>
       </c>
       <c r="X186" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y186" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z186" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG186" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH186" s="1">
         <v>8</v>
       </c>
-      <c r="AB186" s="1">
+      <c r="AI186" s="1">
         <v>8</v>
       </c>
-      <c r="AC186" s="1">
+      <c r="AJ186" s="1">
         <v>8</v>
       </c>
-      <c r="AD186" s="1">
+      <c r="AK186" s="1">
         <v>8</v>
       </c>
-      <c r="AE186" s="1">
+      <c r="AL186" s="1">
         <v>8</v>
       </c>
-      <c r="AF186" s="1">
+      <c r="AM186" s="1">
         <v>8</v>
-      </c>
-      <c r="AG186" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH186" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI186" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ186" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK186" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL186" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM186" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="187" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L187" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M187" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N187" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O187" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P187" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q187" s="1">
         <v>9</v>
@@ -19869,63 +19617,63 @@
         <v>9</v>
       </c>
       <c r="Z187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG187" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH187" s="1">
         <v>8</v>
       </c>
-      <c r="AA187" s="1">
+      <c r="AI187" s="1">
         <v>8</v>
       </c>
-      <c r="AB187" s="1">
+      <c r="AJ187" s="1">
         <v>8</v>
       </c>
-      <c r="AC187" s="1">
+      <c r="AK187" s="1">
         <v>8</v>
       </c>
-      <c r="AD187" s="1">
+      <c r="AL187" s="1">
         <v>8</v>
       </c>
-      <c r="AE187" s="1">
+      <c r="AM187" s="1">
         <v>8</v>
-      </c>
-      <c r="AF187" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG187" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL187" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM187" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="188" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L188" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M188" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N188" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O188" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P188" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q188" s="1">
         <v>9</v>
@@ -19955,63 +19703,63 @@
         <v>9</v>
       </c>
       <c r="Z188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG188" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH188" s="1">
         <v>8</v>
       </c>
-      <c r="AA188" s="1">
+      <c r="AI188" s="1">
         <v>8</v>
       </c>
-      <c r="AB188" s="1">
+      <c r="AJ188" s="1">
         <v>8</v>
       </c>
-      <c r="AC188" s="1">
+      <c r="AK188" s="1">
         <v>8</v>
       </c>
-      <c r="AD188" s="1">
+      <c r="AL188" s="1">
         <v>8</v>
       </c>
-      <c r="AE188" s="1">
+      <c r="AM188" s="1">
         <v>8</v>
-      </c>
-      <c r="AF188" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG188" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH188" s="1">
-        <v>7</v>
-      </c>
-      <c r="AI188" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ188" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK188" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL188" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM188" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="189" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L189" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M189" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N189" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O189" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P189" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q189" s="1">
         <v>9</v>
@@ -20041,51 +19789,51 @@
         <v>9</v>
       </c>
       <c r="Z189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI189" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ189" s="1">
         <v>8</v>
       </c>
-      <c r="AA189" s="1">
+      <c r="AK189" s="1">
         <v>8</v>
       </c>
-      <c r="AB189" s="1">
+      <c r="AL189" s="1">
         <v>8</v>
       </c>
-      <c r="AC189" s="1">
+      <c r="AM189" s="1">
         <v>8</v>
-      </c>
-      <c r="AD189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AE189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AF189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI189" s="1">
-        <v>8</v>
-      </c>
-      <c r="AJ189" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK189" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL189" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM189" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="190" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L190" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M190" s="1">
         <v>9</v>
@@ -20127,51 +19875,51 @@
         <v>9</v>
       </c>
       <c r="Z190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AB190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AD190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI190" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ190" s="1">
         <v>8</v>
       </c>
-      <c r="AA190" s="1">
+      <c r="AK190" s="1">
         <v>8</v>
       </c>
-      <c r="AB190" s="1">
+      <c r="AL190" s="1">
         <v>8</v>
       </c>
-      <c r="AC190" s="1">
+      <c r="AM190" s="1">
         <v>8</v>
-      </c>
-      <c r="AD190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AE190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AF190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI190" s="1">
-        <v>8</v>
-      </c>
-      <c r="AJ190" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK190" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL190" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM190" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="191" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L191" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M191" s="1">
         <v>9</v>
@@ -20186,73 +19934,73 @@
         <v>9</v>
       </c>
       <c r="Q191" s="1">
+        <v>9</v>
+      </c>
+      <c r="R191" s="1">
+        <v>9</v>
+      </c>
+      <c r="S191" s="1">
+        <v>9</v>
+      </c>
+      <c r="T191" s="1">
+        <v>9</v>
+      </c>
+      <c r="U191" s="1">
+        <v>9</v>
+      </c>
+      <c r="V191" s="1">
+        <v>9</v>
+      </c>
+      <c r="W191" s="1">
+        <v>9</v>
+      </c>
+      <c r="X191" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y191" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z191" s="1">
+        <v>9</v>
+      </c>
+      <c r="AA191" s="1">
+        <v>9</v>
+      </c>
+      <c r="AB191" s="1">
+        <v>9</v>
+      </c>
+      <c r="AC191" s="1">
+        <v>9</v>
+      </c>
+      <c r="AD191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AH191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI191" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ191" s="1">
         <v>8</v>
       </c>
-      <c r="R191" s="1">
+      <c r="AK191" s="1">
         <v>8</v>
       </c>
-      <c r="S191" s="1">
+      <c r="AL191" s="1">
         <v>8</v>
       </c>
-      <c r="T191" s="1">
+      <c r="AM191" s="1">
         <v>8</v>
-      </c>
-      <c r="U191" s="1">
-        <v>8</v>
-      </c>
-      <c r="V191" s="1">
-        <v>8</v>
-      </c>
-      <c r="W191" s="1">
-        <v>8</v>
-      </c>
-      <c r="X191" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y191" s="1">
-        <v>8</v>
-      </c>
-      <c r="Z191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AA191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AB191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AC191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AD191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AE191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AF191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AG191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI191" s="1">
-        <v>8</v>
-      </c>
-      <c r="AJ191" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK191" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL191" s="1">
-        <v>7</v>
-      </c>
-      <c r="AM191" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="192" spans="12:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20336,60 +20084,60 @@
     <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="35" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG1:BG21">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
